--- a/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/2021_FilteringLog_EDI.xlsx
+++ b/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/2021_FilteringLog_EDI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlybauer/Desktop/Reservoirs/Data/DataNotYetUploadedToEDI/Sed_trap/Filtering logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9326C89-99F3-E144-9202-160CC7336261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD670971-9AEC-6841-9067-5F16E7A6DEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="-13320" windowWidth="28800" windowHeight="16000" xr2:uid="{C0239904-7DB2-47E3-A92B-06527595555B}"/>
+    <workbookView xWindow="4920" yWindow="-16000" windowWidth="28800" windowHeight="16000" xr2:uid="{C0239904-7DB2-47E3-A92B-06527595555B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1791,11 +1791,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C1B7B4-CAC9-422C-B88C-97C83E2B3AA6}">
   <dimension ref="A1:M401"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A389" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A402" sqref="A402:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
